--- a/src/Windows Detail.xlsx
+++ b/src/Windows Detail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="10425"/>
+    <workbookView windowWidth="21000" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="63">
   <si>
     <t>2 Track - 2 Glass Shutter</t>
   </si>
@@ -44,35 +44,6 @@
   </si>
   <si>
     <t>6 Nos.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Push Lock </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Handle Lock</t>
-    </r>
-  </si>
-  <si>
-    <t>2 Nos.</t>
   </si>
   <si>
     <r>
@@ -108,6 +79,9 @@
     </r>
   </si>
   <si>
+    <t>2 Nos.</t>
+  </si>
+  <si>
     <t>3 Nos.</t>
   </si>
   <si>
@@ -266,12 +240,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,30 +270,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +288,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,33 +309,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,7 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,29 +340,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +361,50 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -448,31 +415,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,151 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,15 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -677,6 +635,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,22 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,162 +713,156 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,8 +1204,8 @@
   <sheetPr/>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1341,16 +1308,16 @@
         <v>120</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="2">
         <v>120</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>11</v>
@@ -1384,28 +1351,28 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>0.5</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G6" s="2">
         <v>0.5</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="K6" s="2">
         <v>0.5</v>
@@ -1413,28 +1380,28 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="K7" s="2">
         <v>5</v>
@@ -1442,28 +1409,28 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2">
         <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="2">
         <v>14</v>
@@ -1471,7 +1438,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -1480,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -1489,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>7</v>
@@ -1500,28 +1467,28 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="K10" s="2">
         <v>3</v>
@@ -1529,28 +1496,28 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="K11" s="2">
         <v>3</v>
@@ -1558,28 +1525,28 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -1587,63 +1554,63 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1682,7 +1649,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>40</v>
@@ -1691,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="2">
         <v>40</v>
@@ -1700,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" s="2">
         <v>40</v>
@@ -1708,7 +1675,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -1717,7 +1684,7 @@
         <v>120</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
@@ -1726,10 +1693,10 @@
         <v>120</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="K19" s="2">
         <v>120</v>
@@ -1738,7 +1705,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
         <v>550</v>
@@ -1760,28 +1727,28 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C21" s="2">
         <v>0.5</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G21" s="2">
         <v>0.5</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="K21" s="2">
         <v>0.5</v>
@@ -1789,28 +1756,28 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G22" s="2">
         <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="K22" s="2">
         <v>5</v>
@@ -1818,28 +1785,28 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="2">
         <v>14</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="2">
         <v>14</v>
@@ -1847,16 +1814,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>7</v>
@@ -1865,10 +1832,10 @@
         <v>3</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="2">
         <v>3</v>
@@ -1876,16 +1843,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
@@ -1894,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>9</v>
@@ -1905,28 +1872,28 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K26" s="2">
         <v>3</v>
@@ -1934,28 +1901,28 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -1963,63 +1930,63 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29" s="2"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -2046,30 +2013,30 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C33" s="2">
         <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="2">
         <v>100</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33" s="2">
         <v>16</v>
@@ -2077,7 +2044,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -2086,7 +2053,7 @@
         <v>110</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2">
         <v>2</v>
@@ -2095,7 +2062,7 @@
         <v>110</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J34" s="2">
         <v>19</v>
@@ -2103,7 +2070,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
@@ -2112,7 +2079,7 @@
         <v>30</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="2">
         <v>8</v>
@@ -2121,7 +2088,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J35" s="2">
         <v>22</v>
@@ -2129,7 +2096,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -2138,7 +2105,7 @@
         <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" s="2">
         <v>2</v>
@@ -2147,7 +2114,7 @@
         <v>60</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" s="2">
         <v>11.5</v>
@@ -2155,25 +2122,25 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="2">
-        <v>3</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="J37" s="2">
         <v>8</v>
@@ -2181,21 +2148,21 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C38" s="2"/>
       <c r="E38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J38" s="2">
         <v>6</v>
@@ -2203,21 +2170,21 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J39" s="2">
         <v>14</v>
@@ -2225,7 +2192,7 @@
     </row>
     <row r="40" spans="9:10">
       <c r="I40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J40" s="2">
         <v>14</v>
@@ -2233,7 +2200,7 @@
     </row>
     <row r="41" spans="9:10">
       <c r="I41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J41" s="2">
         <v>6.5</v>
@@ -2241,12 +2208,12 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
